--- a/po_analysis_by_asin/B09RK7GFQL_po_data.xlsx
+++ b/po_analysis_by_asin/B09RK7GFQL_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,55 +452,55 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45383</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45390</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45397</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>10</v>
@@ -508,47 +508,47 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45411</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45418</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45425</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45432</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45439</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>20</v>
@@ -556,89 +556,329 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45453</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45460</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45474</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45495</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45509</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45544</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45572</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45579</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45607</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B25" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B55" t="n">
         <v>30</v>
       </c>
     </row>
@@ -653,7 +893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,81 +915,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>230</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>110</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>80</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>180</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>30</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B09RK7GFQL_po_data.xlsx
+++ b/po_analysis_by_asin/B09RK7GFQL_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -909,7 +910,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1071,6 +1072,915 @@
       </c>
       <c r="B21" t="n">
         <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-5.285543127715359</v>
+      </c>
+      <c r="D2" t="n">
+        <v>113.132555738047</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-8.390129395117389</v>
+      </c>
+      <c r="D3" t="n">
+        <v>113.4908507222862</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>53</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-6.970535828474061</v>
+      </c>
+      <c r="D4" t="n">
+        <v>106.9787069858728</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>53</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-4.763177264364586</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.6202260940187</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>53</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-7.299504064703059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>111.8777729270241</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-6.757259478142172</v>
+      </c>
+      <c r="D7" t="n">
+        <v>113.4407062994896</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>53</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-9.681409849149489</v>
+      </c>
+      <c r="D8" t="n">
+        <v>112.2917095120634</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>53</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-7.796475428914834</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112.766627257182</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>53</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-7.340848891860372</v>
+      </c>
+      <c r="D10" t="n">
+        <v>114.049490689229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-8.949661280241413</v>
+      </c>
+      <c r="D11" t="n">
+        <v>112.1361858504739</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>53</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.041140673267867</v>
+      </c>
+      <c r="D12" t="n">
+        <v>114.1407994837099</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>53</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-8.057127686709869</v>
+      </c>
+      <c r="D13" t="n">
+        <v>110.1997116281086</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>53</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.22290954973601</v>
+      </c>
+      <c r="D14" t="n">
+        <v>114.2778402715965</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>53</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-6.407985931994733</v>
+      </c>
+      <c r="D15" t="n">
+        <v>115.3512304097945</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>53</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-11.03776113683218</v>
+      </c>
+      <c r="D16" t="n">
+        <v>111.6123057204154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>52</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-6.300297789823051</v>
+      </c>
+      <c r="D17" t="n">
+        <v>110.0471520866977</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>52</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-9.491679199937851</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.6460836853923</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-8.928772670527929</v>
+      </c>
+      <c r="D19" t="n">
+        <v>119.1945356563503</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>52</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-7.238632574877397</v>
+      </c>
+      <c r="D20" t="n">
+        <v>110.8426682867633</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>52</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-6.664851249861976</v>
+      </c>
+      <c r="D21" t="n">
+        <v>111.6927721667411</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>52</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-11.10378617496946</v>
+      </c>
+      <c r="D22" t="n">
+        <v>114.0005915027606</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>52</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.313084866822182</v>
+      </c>
+      <c r="D23" t="n">
+        <v>108.5013864730803</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>52</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-11.62313061267878</v>
+      </c>
+      <c r="D24" t="n">
+        <v>111.6655493369915</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>52</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-10.04960451279833</v>
+      </c>
+      <c r="D25" t="n">
+        <v>112.1981858487567</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-8.320596025526489</v>
+      </c>
+      <c r="D26" t="n">
+        <v>112.5280875620812</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>52</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-10.4497143032466</v>
+      </c>
+      <c r="D27" t="n">
+        <v>110.0992091864786</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>52</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.803916899575842</v>
+      </c>
+      <c r="D28" t="n">
+        <v>112.8032801686037</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>52</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-8.700739309563771</v>
+      </c>
+      <c r="D29" t="n">
+        <v>116.6071288912561</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>52</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.89407672226894</v>
+      </c>
+      <c r="D30" t="n">
+        <v>109.8624810535163</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>52</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-7.108336073928923</v>
+      </c>
+      <c r="D31" t="n">
+        <v>112.7796950215423</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-10.50025123086013</v>
+      </c>
+      <c r="D32" t="n">
+        <v>113.5663131509592</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>52</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-11.97248152877507</v>
+      </c>
+      <c r="D33" t="n">
+        <v>104.2682186099916</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>52</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-9.408829330995031</v>
+      </c>
+      <c r="D34" t="n">
+        <v>110.1037041338069</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>52</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-8.68446843800797</v>
+      </c>
+      <c r="D35" t="n">
+        <v>109.0029261196508</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-7.885711444358685</v>
+      </c>
+      <c r="D36" t="n">
+        <v>114.9489609527852</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>52</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-5.102175953770758</v>
+      </c>
+      <c r="D37" t="n">
+        <v>114.853252676224</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-3.51258076623459</v>
+      </c>
+      <c r="D38" t="n">
+        <v>112.532568106707</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>52</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-10.53205738573054</v>
+      </c>
+      <c r="D39" t="n">
+        <v>108.3565975939653</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>52</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-4.751700871884307</v>
+      </c>
+      <c r="D40" t="n">
+        <v>108.4456287199262</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>52</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-12.29216990710318</v>
+      </c>
+      <c r="D41" t="n">
+        <v>112.4053039443621</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>52</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-9.330944664056155</v>
+      </c>
+      <c r="D42" t="n">
+        <v>115.6616240444388</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>52</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-7.948321079558147</v>
+      </c>
+      <c r="D43" t="n">
+        <v>110.4713776325737</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>52</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-10.98064872053556</v>
+      </c>
+      <c r="D44" t="n">
+        <v>110.4539792499579</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>52</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3.732777841974141</v>
+      </c>
+      <c r="D45" t="n">
+        <v>111.7821150525779</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>52</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-11.14552574249501</v>
+      </c>
+      <c r="D46" t="n">
+        <v>106.7856311287698</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>52</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-10.82792013764851</v>
+      </c>
+      <c r="D47" t="n">
+        <v>112.0839622494994</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>52</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-11.16839225569206</v>
+      </c>
+      <c r="D48" t="n">
+        <v>118.1120367297904</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>52</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-4.74197807881552</v>
+      </c>
+      <c r="D49" t="n">
+        <v>112.6046160501715</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>51</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-7.727409060964876</v>
+      </c>
+      <c r="D50" t="n">
+        <v>113.533181044186</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>51</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-8.573771125623598</v>
+      </c>
+      <c r="D51" t="n">
+        <v>111.8835265730544</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-9.856626692755741</v>
+      </c>
+      <c r="D52" t="n">
+        <v>112.7206902321844</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-6.512248689371398</v>
+      </c>
+      <c r="D53" t="n">
+        <v>112.5468273212218</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>51</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-11.44886709820527</v>
+      </c>
+      <c r="D54" t="n">
+        <v>111.6758073755093</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>51</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-6.779072622682858</v>
+      </c>
+      <c r="D55" t="n">
+        <v>113.9616110292776</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>51</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-7.071115515283642</v>
+      </c>
+      <c r="D56" t="n">
+        <v>112.1573932468084</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>51</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-12.04997655389171</v>
+      </c>
+      <c r="D57" t="n">
+        <v>109.6628468665303</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>51</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-7.363658846940401</v>
+      </c>
+      <c r="D58" t="n">
+        <v>112.68400076554</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>51</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-8.155465438533657</v>
+      </c>
+      <c r="D59" t="n">
+        <v>113.2444500267604</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>51</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-8.247315169713028</v>
+      </c>
+      <c r="D60" t="n">
+        <v>115.6157631424951</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>51</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-7.280184713036368</v>
+      </c>
+      <c r="D61" t="n">
+        <v>112.2926848535549</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>51</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-9.450551059460897</v>
+      </c>
+      <c r="D62" t="n">
+        <v>110.5453630710555</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>51</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-12.30423354369695</v>
+      </c>
+      <c r="D63" t="n">
+        <v>108.6106961522839</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B09RK7GFQL_po_data.xlsx
+++ b/po_analysis_by_asin/B09RK7GFQL_po_data.xlsx
@@ -1085,7 +1085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1104,16 +1104,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1122,12 +1112,6 @@
       <c r="B2" t="n">
         <v>53</v>
       </c>
-      <c r="C2" t="n">
-        <v>-5.285543127715359</v>
-      </c>
-      <c r="D2" t="n">
-        <v>113.132555738047</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1136,12 +1120,6 @@
       <c r="B3" t="n">
         <v>53</v>
       </c>
-      <c r="C3" t="n">
-        <v>-8.390129395117389</v>
-      </c>
-      <c r="D3" t="n">
-        <v>113.4908507222862</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1150,12 +1128,6 @@
       <c r="B4" t="n">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
-        <v>-6.970535828474061</v>
-      </c>
-      <c r="D4" t="n">
-        <v>106.9787069858728</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1164,12 +1136,6 @@
       <c r="B5" t="n">
         <v>53</v>
       </c>
-      <c r="C5" t="n">
-        <v>-4.763177264364586</v>
-      </c>
-      <c r="D5" t="n">
-        <v>110.6202260940187</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1178,12 +1144,6 @@
       <c r="B6" t="n">
         <v>53</v>
       </c>
-      <c r="C6" t="n">
-        <v>-7.299504064703059</v>
-      </c>
-      <c r="D6" t="n">
-        <v>111.8777729270241</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1192,12 +1152,6 @@
       <c r="B7" t="n">
         <v>53</v>
       </c>
-      <c r="C7" t="n">
-        <v>-6.757259478142172</v>
-      </c>
-      <c r="D7" t="n">
-        <v>113.4407062994896</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1206,12 +1160,6 @@
       <c r="B8" t="n">
         <v>53</v>
       </c>
-      <c r="C8" t="n">
-        <v>-9.681409849149489</v>
-      </c>
-      <c r="D8" t="n">
-        <v>112.2917095120634</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1220,12 +1168,6 @@
       <c r="B9" t="n">
         <v>53</v>
       </c>
-      <c r="C9" t="n">
-        <v>-7.796475428914834</v>
-      </c>
-      <c r="D9" t="n">
-        <v>112.766627257182</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1234,12 +1176,6 @@
       <c r="B10" t="n">
         <v>53</v>
       </c>
-      <c r="C10" t="n">
-        <v>-7.340848891860372</v>
-      </c>
-      <c r="D10" t="n">
-        <v>114.049490689229</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1248,12 +1184,6 @@
       <c r="B11" t="n">
         <v>53</v>
       </c>
-      <c r="C11" t="n">
-        <v>-8.949661280241413</v>
-      </c>
-      <c r="D11" t="n">
-        <v>112.1361858504739</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1262,12 +1192,6 @@
       <c r="B12" t="n">
         <v>53</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.041140673267867</v>
-      </c>
-      <c r="D12" t="n">
-        <v>114.1407994837099</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1276,12 +1200,6 @@
       <c r="B13" t="n">
         <v>53</v>
       </c>
-      <c r="C13" t="n">
-        <v>-8.057127686709869</v>
-      </c>
-      <c r="D13" t="n">
-        <v>110.1997116281086</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1290,12 +1208,6 @@
       <c r="B14" t="n">
         <v>53</v>
       </c>
-      <c r="C14" t="n">
-        <v>-4.22290954973601</v>
-      </c>
-      <c r="D14" t="n">
-        <v>114.2778402715965</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1304,12 +1216,6 @@
       <c r="B15" t="n">
         <v>53</v>
       </c>
-      <c r="C15" t="n">
-        <v>-6.407985931994733</v>
-      </c>
-      <c r="D15" t="n">
-        <v>115.3512304097945</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1318,12 +1224,6 @@
       <c r="B16" t="n">
         <v>53</v>
       </c>
-      <c r="C16" t="n">
-        <v>-11.03776113683218</v>
-      </c>
-      <c r="D16" t="n">
-        <v>111.6123057204154</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1332,12 +1232,6 @@
       <c r="B17" t="n">
         <v>52</v>
       </c>
-      <c r="C17" t="n">
-        <v>-6.300297789823051</v>
-      </c>
-      <c r="D17" t="n">
-        <v>110.0471520866977</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1346,12 +1240,6 @@
       <c r="B18" t="n">
         <v>52</v>
       </c>
-      <c r="C18" t="n">
-        <v>-9.491679199937851</v>
-      </c>
-      <c r="D18" t="n">
-        <v>114.6460836853923</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1360,12 +1248,6 @@
       <c r="B19" t="n">
         <v>52</v>
       </c>
-      <c r="C19" t="n">
-        <v>-8.928772670527929</v>
-      </c>
-      <c r="D19" t="n">
-        <v>119.1945356563503</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1374,12 +1256,6 @@
       <c r="B20" t="n">
         <v>52</v>
       </c>
-      <c r="C20" t="n">
-        <v>-7.238632574877397</v>
-      </c>
-      <c r="D20" t="n">
-        <v>110.8426682867633</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1388,12 +1264,6 @@
       <c r="B21" t="n">
         <v>52</v>
       </c>
-      <c r="C21" t="n">
-        <v>-6.664851249861976</v>
-      </c>
-      <c r="D21" t="n">
-        <v>111.6927721667411</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1402,12 +1272,6 @@
       <c r="B22" t="n">
         <v>52</v>
       </c>
-      <c r="C22" t="n">
-        <v>-11.10378617496946</v>
-      </c>
-      <c r="D22" t="n">
-        <v>114.0005915027606</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1416,12 +1280,6 @@
       <c r="B23" t="n">
         <v>52</v>
       </c>
-      <c r="C23" t="n">
-        <v>-8.313084866822182</v>
-      </c>
-      <c r="D23" t="n">
-        <v>108.5013864730803</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1430,12 +1288,6 @@
       <c r="B24" t="n">
         <v>52</v>
       </c>
-      <c r="C24" t="n">
-        <v>-11.62313061267878</v>
-      </c>
-      <c r="D24" t="n">
-        <v>111.6655493369915</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1444,12 +1296,6 @@
       <c r="B25" t="n">
         <v>52</v>
       </c>
-      <c r="C25" t="n">
-        <v>-10.04960451279833</v>
-      </c>
-      <c r="D25" t="n">
-        <v>112.1981858487567</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1458,12 +1304,6 @@
       <c r="B26" t="n">
         <v>52</v>
       </c>
-      <c r="C26" t="n">
-        <v>-8.320596025526489</v>
-      </c>
-      <c r="D26" t="n">
-        <v>112.5280875620812</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1472,12 +1312,6 @@
       <c r="B27" t="n">
         <v>52</v>
       </c>
-      <c r="C27" t="n">
-        <v>-10.4497143032466</v>
-      </c>
-      <c r="D27" t="n">
-        <v>110.0992091864786</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1486,12 +1320,6 @@
       <c r="B28" t="n">
         <v>52</v>
       </c>
-      <c r="C28" t="n">
-        <v>-9.803916899575842</v>
-      </c>
-      <c r="D28" t="n">
-        <v>112.8032801686037</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1500,12 +1328,6 @@
       <c r="B29" t="n">
         <v>52</v>
       </c>
-      <c r="C29" t="n">
-        <v>-8.700739309563771</v>
-      </c>
-      <c r="D29" t="n">
-        <v>116.6071288912561</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1514,12 +1336,6 @@
       <c r="B30" t="n">
         <v>52</v>
       </c>
-      <c r="C30" t="n">
-        <v>-8.89407672226894</v>
-      </c>
-      <c r="D30" t="n">
-        <v>109.8624810535163</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1528,12 +1344,6 @@
       <c r="B31" t="n">
         <v>52</v>
       </c>
-      <c r="C31" t="n">
-        <v>-7.108336073928923</v>
-      </c>
-      <c r="D31" t="n">
-        <v>112.7796950215423</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1542,12 +1352,6 @@
       <c r="B32" t="n">
         <v>52</v>
       </c>
-      <c r="C32" t="n">
-        <v>-10.50025123086013</v>
-      </c>
-      <c r="D32" t="n">
-        <v>113.5663131509592</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1556,12 +1360,6 @@
       <c r="B33" t="n">
         <v>52</v>
       </c>
-      <c r="C33" t="n">
-        <v>-11.97248152877507</v>
-      </c>
-      <c r="D33" t="n">
-        <v>104.2682186099916</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1570,12 +1368,6 @@
       <c r="B34" t="n">
         <v>52</v>
       </c>
-      <c r="C34" t="n">
-        <v>-9.408829330995031</v>
-      </c>
-      <c r="D34" t="n">
-        <v>110.1037041338069</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1584,12 +1376,6 @@
       <c r="B35" t="n">
         <v>52</v>
       </c>
-      <c r="C35" t="n">
-        <v>-8.68446843800797</v>
-      </c>
-      <c r="D35" t="n">
-        <v>109.0029261196508</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1598,12 +1384,6 @@
       <c r="B36" t="n">
         <v>52</v>
       </c>
-      <c r="C36" t="n">
-        <v>-7.885711444358685</v>
-      </c>
-      <c r="D36" t="n">
-        <v>114.9489609527852</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1612,12 +1392,6 @@
       <c r="B37" t="n">
         <v>52</v>
       </c>
-      <c r="C37" t="n">
-        <v>-5.102175953770758</v>
-      </c>
-      <c r="D37" t="n">
-        <v>114.853252676224</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1626,12 +1400,6 @@
       <c r="B38" t="n">
         <v>52</v>
       </c>
-      <c r="C38" t="n">
-        <v>-3.51258076623459</v>
-      </c>
-      <c r="D38" t="n">
-        <v>112.532568106707</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1640,12 +1408,6 @@
       <c r="B39" t="n">
         <v>52</v>
       </c>
-      <c r="C39" t="n">
-        <v>-10.53205738573054</v>
-      </c>
-      <c r="D39" t="n">
-        <v>108.3565975939653</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1654,12 +1416,6 @@
       <c r="B40" t="n">
         <v>52</v>
       </c>
-      <c r="C40" t="n">
-        <v>-4.751700871884307</v>
-      </c>
-      <c r="D40" t="n">
-        <v>108.4456287199262</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1668,12 +1424,6 @@
       <c r="B41" t="n">
         <v>52</v>
       </c>
-      <c r="C41" t="n">
-        <v>-12.29216990710318</v>
-      </c>
-      <c r="D41" t="n">
-        <v>112.4053039443621</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1682,12 +1432,6 @@
       <c r="B42" t="n">
         <v>52</v>
       </c>
-      <c r="C42" t="n">
-        <v>-9.330944664056155</v>
-      </c>
-      <c r="D42" t="n">
-        <v>115.6616240444388</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1696,12 +1440,6 @@
       <c r="B43" t="n">
         <v>52</v>
       </c>
-      <c r="C43" t="n">
-        <v>-7.948321079558147</v>
-      </c>
-      <c r="D43" t="n">
-        <v>110.4713776325737</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1710,12 +1448,6 @@
       <c r="B44" t="n">
         <v>52</v>
       </c>
-      <c r="C44" t="n">
-        <v>-10.98064872053556</v>
-      </c>
-      <c r="D44" t="n">
-        <v>110.4539792499579</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1724,12 +1456,6 @@
       <c r="B45" t="n">
         <v>52</v>
       </c>
-      <c r="C45" t="n">
-        <v>-3.732777841974141</v>
-      </c>
-      <c r="D45" t="n">
-        <v>111.7821150525779</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1738,12 +1464,6 @@
       <c r="B46" t="n">
         <v>52</v>
       </c>
-      <c r="C46" t="n">
-        <v>-11.14552574249501</v>
-      </c>
-      <c r="D46" t="n">
-        <v>106.7856311287698</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1752,12 +1472,6 @@
       <c r="B47" t="n">
         <v>52</v>
       </c>
-      <c r="C47" t="n">
-        <v>-10.82792013764851</v>
-      </c>
-      <c r="D47" t="n">
-        <v>112.0839622494994</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1766,12 +1480,6 @@
       <c r="B48" t="n">
         <v>52</v>
       </c>
-      <c r="C48" t="n">
-        <v>-11.16839225569206</v>
-      </c>
-      <c r="D48" t="n">
-        <v>118.1120367297904</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1780,12 +1488,6 @@
       <c r="B49" t="n">
         <v>52</v>
       </c>
-      <c r="C49" t="n">
-        <v>-4.74197807881552</v>
-      </c>
-      <c r="D49" t="n">
-        <v>112.6046160501715</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1794,12 +1496,6 @@
       <c r="B50" t="n">
         <v>51</v>
       </c>
-      <c r="C50" t="n">
-        <v>-7.727409060964876</v>
-      </c>
-      <c r="D50" t="n">
-        <v>113.533181044186</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1808,12 +1504,6 @@
       <c r="B51" t="n">
         <v>51</v>
       </c>
-      <c r="C51" t="n">
-        <v>-8.573771125623598</v>
-      </c>
-      <c r="D51" t="n">
-        <v>111.8835265730544</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1822,12 +1512,6 @@
       <c r="B52" t="n">
         <v>51</v>
       </c>
-      <c r="C52" t="n">
-        <v>-9.856626692755741</v>
-      </c>
-      <c r="D52" t="n">
-        <v>112.7206902321844</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1836,12 +1520,6 @@
       <c r="B53" t="n">
         <v>51</v>
       </c>
-      <c r="C53" t="n">
-        <v>-6.512248689371398</v>
-      </c>
-      <c r="D53" t="n">
-        <v>112.5468273212218</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1850,12 +1528,6 @@
       <c r="B54" t="n">
         <v>51</v>
       </c>
-      <c r="C54" t="n">
-        <v>-11.44886709820527</v>
-      </c>
-      <c r="D54" t="n">
-        <v>111.6758073755093</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1864,12 +1536,6 @@
       <c r="B55" t="n">
         <v>51</v>
       </c>
-      <c r="C55" t="n">
-        <v>-6.779072622682858</v>
-      </c>
-      <c r="D55" t="n">
-        <v>113.9616110292776</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1878,12 +1544,6 @@
       <c r="B56" t="n">
         <v>51</v>
       </c>
-      <c r="C56" t="n">
-        <v>-7.071115515283642</v>
-      </c>
-      <c r="D56" t="n">
-        <v>112.1573932468084</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1892,12 +1552,6 @@
       <c r="B57" t="n">
         <v>51</v>
       </c>
-      <c r="C57" t="n">
-        <v>-12.04997655389171</v>
-      </c>
-      <c r="D57" t="n">
-        <v>109.6628468665303</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1906,12 +1560,6 @@
       <c r="B58" t="n">
         <v>51</v>
       </c>
-      <c r="C58" t="n">
-        <v>-7.363658846940401</v>
-      </c>
-      <c r="D58" t="n">
-        <v>112.68400076554</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1920,12 +1568,6 @@
       <c r="B59" t="n">
         <v>51</v>
       </c>
-      <c r="C59" t="n">
-        <v>-8.155465438533657</v>
-      </c>
-      <c r="D59" t="n">
-        <v>113.2444500267604</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1934,12 +1576,6 @@
       <c r="B60" t="n">
         <v>51</v>
       </c>
-      <c r="C60" t="n">
-        <v>-8.247315169713028</v>
-      </c>
-      <c r="D60" t="n">
-        <v>115.6157631424951</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1948,12 +1584,6 @@
       <c r="B61" t="n">
         <v>51</v>
       </c>
-      <c r="C61" t="n">
-        <v>-7.280184713036368</v>
-      </c>
-      <c r="D61" t="n">
-        <v>112.2926848535549</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1962,12 +1592,6 @@
       <c r="B62" t="n">
         <v>51</v>
       </c>
-      <c r="C62" t="n">
-        <v>-9.450551059460897</v>
-      </c>
-      <c r="D62" t="n">
-        <v>110.5453630710555</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1975,12 +1599,6 @@
       </c>
       <c r="B63" t="n">
         <v>51</v>
-      </c>
-      <c r="C63" t="n">
-        <v>-12.30423354369695</v>
-      </c>
-      <c r="D63" t="n">
-        <v>108.6106961522839</v>
       </c>
     </row>
   </sheetData>
